--- a/figures/图的说明.xlsx
+++ b/figures/图的说明.xlsx
@@ -208,14 +208,14 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -500,7 +500,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+      <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -551,7 +551,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B2">
@@ -592,7 +592,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+      <c r="A3" s="3"/>
       <c r="B3">
         <v>18</v>
       </c>
@@ -669,7 +669,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B5">
@@ -710,7 +710,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+      <c r="A6" s="2"/>
       <c r="B6">
         <v>18</v>
       </c>
@@ -749,7 +749,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B7">
@@ -790,7 +790,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+      <c r="A8" s="2"/>
       <c r="B8">
         <v>18</v>
       </c>
@@ -829,7 +829,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="A9" s="2"/>
       <c r="B9">
         <v>18</v>
       </c>
@@ -868,7 +868,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+      <c r="A10" s="2"/>
       <c r="B10">
         <v>18</v>
       </c>
@@ -907,7 +907,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>4.5</v>
       </c>
       <c r="B11">
@@ -943,12 +943,12 @@
       <c r="L11" t="s">
         <v>25</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="M11" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+      <c r="A12" s="2"/>
       <c r="B12">
         <v>18</v>
       </c>
@@ -982,12 +982,12 @@
       <c r="L12" t="s">
         <v>25</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="M12" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+      <c r="A13" s="2"/>
       <c r="B13">
         <v>18</v>
       </c>
@@ -1021,12 +1021,12 @@
       <c r="L13" t="s">
         <v>25</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="M13" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+      <c r="A14" s="2"/>
       <c r="B14">
         <v>18</v>
       </c>
@@ -1060,7 +1060,7 @@
       <c r="L14" t="s">
         <v>25</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="1" t="s">
         <v>32</v>
       </c>
     </row>
